--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-haul.xlsx
@@ -68,7 +68,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>198 ч. 23 мин. 8 сек.</t>
+    <t>198 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -77,7 +77,7 @@
     <t>Anhel-kam</t>
   </si>
   <si>
-    <t>185 ч. 45 мин. 8 сек.</t>
+    <t>185 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -104,7 +104,7 @@
     <t>pyTo</t>
   </si>
   <si>
-    <t>146 ч. 5 мин. 59 сек.</t>
+    <t>146 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -122,7 +122,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>131 ч. 0 мин. 54 сек.</t>
+    <t>131 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -158,7 +158,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>119 ч. 6 мин. 5 сек.</t>
+    <t>119 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -194,7 +194,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>104 ч. 0 мин. 7 сек.</t>
+    <t>104 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -239,7 +239,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>86 ч. 39 мин. 6 сек.</t>
+    <t>86 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -284,7 +284,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>80 ч. 31 мин. 0 сек.</t>
+    <t>80 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -302,7 +302,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>78 ч. 5 мин. 50 сек.</t>
+    <t>78 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -311,7 +311,7 @@
     <t>staskrasovskiy</t>
   </si>
   <si>
-    <t>71 ч. 38 мин. 7 сек.</t>
+    <t>71 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -365,7 +365,7 @@
     <t>Cooler195</t>
   </si>
   <si>
-    <t>64 ч. 3 мин. 47 сек.</t>
+    <t>64 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -392,7 +392,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>62 ч. 26 мин. 2 сек.</t>
+    <t>62 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -410,7 +410,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>61 ч. 0 мин. 42 сек.</t>
+    <t>61 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -464,7 +464,7 @@
     <t>turbulent</t>
   </si>
   <si>
-    <t>58 ч. 22 мин. 9 сек.</t>
+    <t>58 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -482,7 +482,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>54 ч. 53 мин. 9 сек.</t>
+    <t>54 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -536,7 +536,7 @@
     <t>Поня-моня</t>
   </si>
   <si>
-    <t>52 ч. 23 мин. 2 сек.</t>
+    <t>52 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -572,7 +572,7 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>51 ч. 4 мин. 43 сек.</t>
+    <t>51 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -608,7 +608,7 @@
     <t>mekh</t>
   </si>
   <si>
-    <t>50 ч. 2 мин. 11 сек.</t>
+    <t>50 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -617,7 +617,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>48 ч. 54 мин. 4 сек.</t>
+    <t>48 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -626,7 +626,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>48 ч. 46 мин. 6 сек.</t>
+    <t>48 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -635,7 +635,7 @@
     <t>griboedov</t>
   </si>
   <si>
-    <t>48 ч. 3 мин. 48 сек.</t>
+    <t>48 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -644,7 +644,7 @@
     <t>Jinglse</t>
   </si>
   <si>
-    <t>47 ч. 35 мин. 6 сек.</t>
+    <t>47 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>68</t>
@@ -671,7 +671,7 @@
     <t>юленька2807</t>
   </si>
   <si>
-    <t>46 ч. 7 мин. 5 сек.</t>
+    <t>46 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -725,7 +725,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>45 ч. 9 мин. 9 сек.</t>
+    <t>45 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -734,7 +734,7 @@
     <t>olta19</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -761,7 +761,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>43 ч. 15 мин. 8 сек.</t>
+    <t>43 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -788,7 +788,7 @@
     <t>mythteria</t>
   </si>
   <si>
-    <t>42 ч. 13 мин. 7 сек.</t>
+    <t>42 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -797,7 +797,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>41 ч. 54 мин. 6 сек.</t>
+    <t>41 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>85</t>
@@ -815,7 +815,7 @@
     <t>shamer</t>
   </si>
   <si>
-    <t>41 ч. 53 мин. 4 сек.</t>
+    <t>41 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -860,7 +860,7 @@
     <t>Nathaliya</t>
   </si>
   <si>
-    <t>39 ч. 26 мин. 9 сек.</t>
+    <t>39 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -878,7 +878,7 @@
     <t>сибирь</t>
   </si>
   <si>
-    <t>39 ч. 1 мин. 35 сек.</t>
+    <t>39 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -941,7 +941,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>37 ч. 41 мин. 2 сек.</t>
+    <t>37 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>101</t>
@@ -977,7 +977,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>36 ч. 54 мин. 2 сек.</t>
+    <t>36 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -1013,7 +1013,7 @@
     <t>yulian</t>
   </si>
   <si>
-    <t>36 ч. 32 мин. 2 сек.</t>
+    <t>36 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1058,7 +1058,7 @@
     <t>Эромдомдом</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 54 сек.</t>
+    <t>35 ч. 05 мин. 54 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1094,7 +1094,7 @@
     <t>feel018</t>
   </si>
   <si>
-    <t>34 ч. 16 мин. 0 сек.</t>
+    <t>34 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1157,7 +1157,7 @@
     <t>sergunn2008</t>
   </si>
   <si>
-    <t>33 ч. 15 мин. 8 сек.</t>
+    <t>33 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1184,7 +1184,7 @@
     <t>iknyaz</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 58 сек.</t>
+    <t>32 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1193,7 +1193,7 @@
     <t>KILLALLHUMANS</t>
   </si>
   <si>
-    <t>32 ч. 0 мин. 45 сек.</t>
+    <t>32 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1247,7 +1247,7 @@
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>31 ч. 18 мин. 2 сек.</t>
+    <t>31 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1256,7 +1256,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 39 сек.</t>
+    <t>31 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1265,7 +1265,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>30 ч. 48 мин. 2 сек.</t>
+    <t>30 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1301,7 +1301,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>30 ч. 1 мин. 42 сек.</t>
+    <t>30 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1355,7 +1355,7 @@
     <t>itrecord</t>
   </si>
   <si>
-    <t>29 ч. 9 мин. 40 сек.</t>
+    <t>29 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1364,7 +1364,7 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 17 сек.</t>
+    <t>29 ч. 03 мин. 17 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1373,7 +1373,7 @@
     <t>ruslan_stef</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 15 сек.</t>
+    <t>29 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1382,7 +1382,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>28 ч. 53 мин. 6 сек.</t>
+    <t>28 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>150</t>
@@ -1400,7 +1400,7 @@
     <t>JluCa</t>
   </si>
   <si>
-    <t>28 ч. 29 мин. 5 сек.</t>
+    <t>28 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1517,7 +1517,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>26 ч. 53 мин. 6 сек.</t>
+    <t>26 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>165</t>
@@ -1553,7 +1553,7 @@
     <t>Vestnik-Kozaky</t>
   </si>
   <si>
-    <t>26 ч. 25 мин. 8 сек.</t>
+    <t>26 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1562,7 +1562,7 @@
     <t>murik</t>
   </si>
   <si>
-    <t>26 ч. 23 мин. 6 сек.</t>
+    <t>26 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1589,7 +1589,7 @@
     <t>alanko</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 37 сек.</t>
+    <t>26 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>173</t>
@@ -1598,7 +1598,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 22 сек.</t>
+    <t>26 ч. 08 мин. 22 сек.</t>
   </si>
   <si>
     <t>174</t>
@@ -1607,7 +1607,7 @@
     <t>albertcoin</t>
   </si>
   <si>
-    <t>26 ч. 1 мин. 46 сек.</t>
+    <t>26 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>175</t>
@@ -1670,7 +1670,7 @@
     <t>AlexAlexCh</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 34 сек.</t>
+    <t>25 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1679,7 +1679,7 @@
     <t>Dima716</t>
   </si>
   <si>
-    <t>25 ч. 7 мин. 34 сек.</t>
+    <t>25 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1688,7 +1688,7 @@
     <t>lnhuman</t>
   </si>
   <si>
-    <t>24 ч. 52 мин. 4 сек.</t>
+    <t>24 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1760,7 +1760,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 0 сек.</t>
+    <t>24 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1796,7 +1796,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 0 сек.</t>
+    <t>23 ч. 47 мин. 00 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1850,13 +1850,13 @@
     <t>Якоб</t>
   </si>
   <si>
-    <t>23 ч. 19 мин. 7 сек.</t>
+    <t>23 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>wask</t>
   </si>
   <si>
-    <t>23 ч. 12 мин. 3 сек.</t>
+    <t>23 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>203</t>
@@ -1865,7 +1865,7 @@
     <t>Yoga888</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 10 сек.</t>
+    <t>23 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1874,7 +1874,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 56 сек.</t>
+    <t>23 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1901,7 +1901,7 @@
     <t>yamamoto013</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 7 сек.</t>
+    <t>22 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1973,7 +1973,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 20 сек.</t>
+    <t>22 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1982,7 +1982,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>22 ч. 4 мин. 17 сек.</t>
+    <t>22 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -1991,7 +1991,7 @@
     <t>счастливка</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 4 сек.</t>
+    <t>22 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2000,7 +2000,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 58 сек.</t>
+    <t>22 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>219</t>
@@ -2009,7 +2009,7 @@
     <t>libertadore</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 58 сек.</t>
+    <t>22 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>220</t>
@@ -2045,7 +2045,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>21 ч. 17 мин. 3 сек.</t>
+    <t>21 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2072,7 +2072,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 52 сек.</t>
+    <t>21 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2081,7 +2081,7 @@
     <t>Egen</t>
   </si>
   <si>
-    <t>21 ч. 0 мин. 15 сек.</t>
+    <t>21 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2180,7 +2180,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 9 сек.</t>
+    <t>20 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2189,7 +2189,7 @@
     <t>ra6pil</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 1 сек.</t>
+    <t>20 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2234,7 +2234,7 @@
     <t>xland</t>
   </si>
   <si>
-    <t>20 ч. 0 мин. 14 сек.</t>
+    <t>20 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2405,7 +2405,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>19 ч. 17 мин. 4 сек.</t>
+    <t>19 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2441,7 +2441,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 20 сек.</t>
+    <t>19 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2450,7 +2450,7 @@
     <t>_onix</t>
   </si>
   <si>
-    <t>19 ч. 6 мин. 8 сек.</t>
+    <t>19 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2459,7 +2459,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 20 сек.</t>
+    <t>19 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>270</t>
@@ -2468,7 +2468,7 @@
     <t>MightySan</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 19 сек.</t>
+    <t>19 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2477,7 +2477,7 @@
     <t>IdSomeName</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 34 сек.</t>
+    <t>19 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2540,7 +2540,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>18 ч. 44 мин. 8 сек.</t>
+    <t>18 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2549,7 +2549,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 2 сек.</t>
+    <t>18 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2576,7 +2576,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>18 ч. 17 мин. 6 сек.</t>
+    <t>18 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2585,7 +2585,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>18 ч. 13 мин. 0 сек.</t>
+    <t>18 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2594,7 +2594,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 53 сек.</t>
+    <t>18 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2603,7 +2603,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 47 сек.</t>
+    <t>18 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2639,7 +2639,7 @@
     <t>Ludimagister</t>
   </si>
   <si>
-    <t>17 ч. 41 мин. 0 сек.</t>
+    <t>17 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2729,7 +2729,7 @@
     <t>grebenkov</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 57 сек.</t>
+    <t>17 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>300</t>
@@ -2738,7 +2738,7 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 33 сек.</t>
+    <t>17 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>301</t>
@@ -2747,7 +2747,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 57 сек.</t>
+    <t>17 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>302</t>
@@ -2756,7 +2756,7 @@
     <t>Sasha_smile</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 47 сек.</t>
+    <t>17 ч. 04 мин. 47 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2765,7 +2765,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 25 сек.</t>
+    <t>17 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>304</t>
@@ -2819,7 +2819,7 @@
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 40 мин. 6 сек.</t>
+    <t>16 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>310</t>
@@ -2873,7 +2873,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2891,7 +2891,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 0 сек.</t>
+    <t>16 ч. 18 мин. 00 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2900,7 +2900,7 @@
     <t>Georgio</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 29 сек.</t>
+    <t>16 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2909,7 +2909,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 14 сек.</t>
+    <t>16 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>320</t>
@@ -2918,7 +2918,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 35 сек.</t>
+    <t>16 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>321</t>
@@ -2927,7 +2927,7 @@
     <t>Lisander</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 18 сек.</t>
+    <t>16 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>322</t>
@@ -2936,7 +2936,7 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 26 сек.</t>
+    <t>16 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>323</t>
@@ -2945,7 +2945,7 @@
     <t>Светорада</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 9 сек.</t>
+    <t>16 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2954,7 +2954,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>15 ч. 59 мин. 1 сек.</t>
+    <t>15 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -2990,7 +2990,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 0 сек.</t>
+    <t>15 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -3017,7 +3017,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>15 ч. 32 мин. 3 сек.</t>
+    <t>15 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>332</t>
@@ -3026,7 +3026,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>15 ч. 31 мин. 2 сек.</t>
+    <t>15 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>333</t>
@@ -3053,7 +3053,7 @@
     <t>judigator</t>
   </si>
   <si>
-    <t>15 ч. 19 мин. 7 сек.</t>
+    <t>15 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>336</t>
@@ -3116,7 +3116,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 44 сек.</t>
+    <t>15 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3125,7 +3125,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 25 сек.</t>
+    <t>15 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3134,7 +3134,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 0 сек.</t>
+    <t>15 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3143,7 +3143,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 22 сек.</t>
+    <t>15 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3152,7 +3152,7 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 45 сек.</t>
+    <t>15 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3161,7 +3161,7 @@
     <t>volchok962</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 33 сек.</t>
+    <t>15 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -3278,7 +3278,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 45 сек.</t>
+    <t>14 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3287,7 +3287,7 @@
     <t>Пашуня</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 13 сек.</t>
+    <t>14 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3296,7 +3296,7 @@
     <t>vitalion_</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 52 сек.</t>
+    <t>14 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>363</t>
@@ -3305,7 +3305,7 @@
     <t>Danwer</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3449,7 +3449,7 @@
     <t>silut1</t>
   </si>
   <si>
-    <t>13 ч. 26 мин. 5 сек.</t>
+    <t>13 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>380</t>
@@ -3557,7 +3557,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>392</t>
@@ -3566,7 +3566,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 14 сек.</t>
+    <t>13 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3575,7 +3575,7 @@
     <t>keyboard_jerker</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 10 сек.</t>
+    <t>13 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3584,7 +3584,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>395</t>
@@ -3593,7 +3593,7 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 25 сек.</t>
+    <t>13 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3602,7 +3602,7 @@
     <t>a1987zz</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 8 сек.</t>
+    <t>13 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -3611,7 +3611,7 @@
     <t>_сахарок_</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 19 сек.</t>
+    <t>13 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3620,7 +3620,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3629,7 +3629,7 @@
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 56 мин. 1 сек.</t>
+    <t>12 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>400</t>
@@ -3773,7 +3773,7 @@
     <t>sergius-ark</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 9 сек.</t>
+    <t>12 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>416</t>
@@ -3827,7 +3827,7 @@
     <t>androed</t>
   </si>
   <si>
-    <t>12 ч. 22 мин. 0 сек.</t>
+    <t>12 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>422</t>
@@ -3863,7 +3863,7 @@
     <t>vasilisa_v</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 0 сек.</t>
+    <t>12 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>426</t>
@@ -3899,7 +3899,7 @@
     <t>Flerik</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 58 сек.</t>
+    <t>12 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>430</t>
@@ -3908,7 +3908,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>431</t>
@@ -3917,7 +3917,7 @@
     <t>piu_piu</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 26 сек.</t>
+    <t>12 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>432</t>
@@ -3926,7 +3926,7 @@
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 59 сек.</t>
+    <t>12 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>433</t>
@@ -3935,7 +3935,7 @@
     <t>Vasia_Chekalin</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 51 сек.</t>
+    <t>12 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>434</t>
@@ -3944,7 +3944,7 @@
     <t>monday</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 3 сек.</t>
+    <t>12 ч. 03 мин. 03 сек.</t>
   </si>
   <si>
     <t>435</t>
@@ -3953,7 +3953,7 @@
     <t>Ковровчаночка</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 24 сек.</t>
+    <t>12 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>436</t>
@@ -3980,7 +3980,7 @@
     <t>Lurlei</t>
   </si>
   <si>
-    <t>11 ч. 54 мин. 3 сек.</t>
+    <t>11 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>439</t>
@@ -4025,7 +4025,7 @@
     <t>7dd7</t>
   </si>
   <si>
-    <t>11 ч. 47 мин. 5 сек.</t>
+    <t>11 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4079,7 +4079,7 @@
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 3 сек.</t>
+    <t>11 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>450</t>
@@ -4088,7 +4088,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 1 сек.</t>
+    <t>11 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>451</t>
@@ -4106,7 +4106,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 3 сек.</t>
+    <t>11 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -4124,7 +4124,7 @@
     <t>Трамтарарам</t>
   </si>
   <si>
-    <t>11 ч. 36 мин. 0 сек.</t>
+    <t>11 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -4133,7 +4133,7 @@
     <t>_ECO_</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 5 сек.</t>
+    <t>11 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -4142,7 +4142,7 @@
     <t>Captain_snail</t>
   </si>
   <si>
-    <t>11 ч. 33 мин. 0 сек.</t>
+    <t>11 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -4169,7 +4169,7 @@
     <t>Большой_Дрю</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 1 сек.</t>
+    <t>11 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>460</t>
@@ -4196,7 +4196,7 @@
     <t>mizinovo1</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 5 сек.</t>
+    <t>11 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>463</t>
@@ -4232,7 +4232,7 @@
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 4 сек.</t>
+    <t>11 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -4259,7 +4259,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 1 сек.</t>
+    <t>11 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4268,7 +4268,7 @@
     <t>arinori</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 41 сек.</t>
+    <t>11 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4277,7 +4277,7 @@
     <t>Kl9ksa</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 5 сек.</t>
+    <t>11 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>472</t>
@@ -4286,7 +4286,7 @@
     <t>katetime2000</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 30 сек.</t>
+    <t>11 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4376,7 +4376,7 @@
     <t>Irinaya</t>
   </si>
   <si>
-    <t>10 ч. 47 мин. 5 сек.</t>
+    <t>10 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4475,7 +4475,7 @@
     <t>vladlun1977</t>
   </si>
   <si>
-    <t>10 ч. 36 мин. 3 сек.</t>
+    <t>10 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>494</t>
@@ -4493,7 +4493,7 @@
     <t>Freighter</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4502,7 +4502,7 @@
     <t>passion11</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>497</t>
@@ -4565,7 +4565,7 @@
     <t>900</t>
   </si>
   <si>
-    <t>10 ч. 26 мин. 7 сек.</t>
+    <t>10 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>504</t>
@@ -4673,7 +4673,7 @@
     <t>Ehoe</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>516</t>
@@ -4682,7 +4682,7 @@
     <t>gabola</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 55 сек.</t>
+    <t>10 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4691,7 +4691,7 @@
     <t>Дронио</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 56 сек.</t>
+    <t>10 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>518</t>
@@ -4700,7 +4700,7 @@
     <t>Razvedos77</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 26 сек.</t>
+    <t>10 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>519</t>
@@ -4709,7 +4709,7 @@
     <t>Valjdemar</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 56 сек.</t>
+    <t>10 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>520</t>
@@ -4718,7 +4718,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 18 сек.</t>
+    <t>10 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>521</t>
@@ -4772,7 +4772,7 @@
     <t>Fr1day</t>
   </si>
   <si>
-    <t>9 ч. 53 мин. 1 сек.</t>
+    <t>9 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>527</t>
@@ -4808,7 +4808,7 @@
     <t>lislkap</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 2 сек.</t>
+    <t>9 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4871,7 +4871,7 @@
     <t>dim2015</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>538</t>
@@ -4880,7 +4880,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4898,7 +4898,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 3 сек.</t>
+    <t>9 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>541</t>
@@ -4907,7 +4907,7 @@
     <t>jassy100</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 1 сек.</t>
+    <t>9 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>542</t>
@@ -4916,7 +4916,7 @@
     <t>andreysharipov</t>
   </si>
   <si>
-    <t>9 ч. 35 мин. 4 сек.</t>
+    <t>9 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>543</t>
@@ -5180,7 +5180,7 @@
     <t>kjonix1337</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 2 сек.</t>
+    <t>9 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>573</t>
@@ -5189,7 +5189,7 @@
     <t>FatboyPrince</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 51 сек.</t>
+    <t>9 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>574</t>
@@ -5198,7 +5198,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 47 сек.</t>
+    <t>9 ч. 07 мин. 47 сек.</t>
   </si>
   <si>
     <t>575</t>
@@ -5207,7 +5207,7 @@
     <t>gree</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 42 сек.</t>
+    <t>9 ч. 05 мин. 42 сек.</t>
   </si>
   <si>
     <t>576</t>
@@ -5216,7 +5216,7 @@
     <t>Massik</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 53 сек.</t>
+    <t>9 ч. 04 мин. 53 сек.</t>
   </si>
   <si>
     <t>577</t>
@@ -5225,7 +5225,7 @@
     <t>Lupen</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>578</t>
@@ -5234,7 +5234,7 @@
     <t>AlexeiD</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>579</t>
@@ -5243,7 +5243,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 18 сек.</t>
+    <t>9 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>580</t>
@@ -5252,7 +5252,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 29 сек.</t>
+    <t>9 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>581</t>
@@ -5354,7 +5354,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 3 сек.</t>
+    <t>8 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>593</t>
@@ -5372,7 +5372,7 @@
     <t>undoundo</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 6 сек.</t>
+    <t>8 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>595</t>
@@ -5417,7 +5417,7 @@
     <t>Vel73</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 5 сек.</t>
+    <t>8 ч. 45 мин. 05 сек.</t>
   </si>
   <si>
     <t>600</t>
@@ -5489,7 +5489,7 @@
     <t>a350</t>
   </si>
   <si>
-    <t>8 ч. 37 мин. 9 сек.</t>
+    <t>8 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5582,7 +5582,7 @@
     <t>0Lika</t>
   </si>
   <si>
-    <t>8 ч. 28 мин. 2 сек.</t>
+    <t>8 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5690,7 +5690,7 @@
     <t>Callahan</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 7 сек.</t>
+    <t>8 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5717,7 +5717,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 2 сек.</t>
+    <t>8 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>634</t>
@@ -5807,7 +5807,7 @@
     <t>Morrikon</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 39 сек.</t>
+    <t>8 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>644</t>
@@ -5816,7 +5816,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 48 сек.</t>
+    <t>8 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>645</t>
@@ -5825,7 +5825,7 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 15 сек.</t>
+    <t>8 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>646</t>
@@ -5834,7 +5834,7 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 57 сек.</t>
+    <t>8 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>647</t>
@@ -5843,7 +5843,7 @@
     <t>Katariada</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 19 сек.</t>
+    <t>8 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>648</t>
@@ -5852,7 +5852,7 @@
     <t>ZeaLotFeed</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 36 сек.</t>
+    <t>8 ч. 05 мин. 36 сек.</t>
   </si>
   <si>
     <t>649</t>
@@ -5861,7 +5861,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 34 сек.</t>
+    <t>8 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>650</t>
@@ -5870,7 +5870,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 46 сек.</t>
+    <t>8 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>651</t>
@@ -5879,7 +5879,7 @@
     <t>PaP1k</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 15 сек.</t>
+    <t>8 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -5888,7 +5888,7 @@
     <t>Antoniwww</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 15 сек.</t>
+    <t>8 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>653</t>
@@ -6167,7 +6167,7 @@
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 1 сек.</t>
+    <t>7 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>684</t>
@@ -6185,7 +6185,7 @@
     <t>Watcher13</t>
   </si>
   <si>
-    <t>7 ч. 27 мин. 2 сек.</t>
+    <t>7 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>686</t>
@@ -6212,7 +6212,7 @@
     <t>_BP_</t>
   </si>
   <si>
-    <t>7 ч. 25 мин. 2 сек.</t>
+    <t>7 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>689</t>
@@ -6302,7 +6302,7 @@
     <t>m3rkus</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 8 сек.</t>
+    <t>7 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>699</t>
@@ -6392,7 +6392,7 @@
     <t>Kronig</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 11 сек.</t>
+    <t>7 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>709</t>
@@ -6401,7 +6401,7 @@
     <t>gaintsev</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 20 сек.</t>
+    <t>7 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>710</t>
@@ -6410,7 +6410,7 @@
     <t>Vitosspom</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 16 сек.</t>
+    <t>7 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>711</t>
@@ -6419,7 +6419,7 @@
     <t>Manhunt714</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 50 сек.</t>
+    <t>7 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -6428,7 +6428,7 @@
     <t>AlexVN</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>713</t>
@@ -6437,7 +6437,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 21 сек.</t>
+    <t>7 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>714</t>
@@ -6446,7 +6446,7 @@
     <t>Deep87</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 2 сек.</t>
+    <t>7 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>715</t>
@@ -6455,7 +6455,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 36 сек.</t>
+    <t>7 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>716</t>
@@ -6464,7 +6464,7 @@
     <t>Sssu</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 18 сек.</t>
+    <t>7 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>717</t>
@@ -6473,7 +6473,7 @@
     <t>Serko72</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 55 сек.</t>
+    <t>7 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>718</t>
@@ -6482,7 +6482,7 @@
     <t>Mary27</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 57 сек.</t>
+    <t>7 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>719</t>
@@ -6491,7 +6491,7 @@
     <t>Boolbek</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 20 сек.</t>
+    <t>7 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>720</t>
@@ -6500,7 +6500,7 @@
     <t>Da_f</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 6 сек.</t>
+    <t>7 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>721</t>
@@ -6590,7 +6590,7 @@
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>731</t>
@@ -6653,7 +6653,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>6 ч. 51 мин. 4 сек.</t>
+    <t>6 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>738</t>
@@ -6743,7 +6743,7 @@
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 5 сек.</t>
+    <t>6 ч. 42 мин. 05 сек.</t>
   </si>
   <si>
     <t>748</t>
@@ -6752,7 +6752,7 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 1 сек.</t>
+    <t>6 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>749</t>
@@ -6788,7 +6788,7 @@
     <t>Lensha2010</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 6 сек.</t>
+    <t>6 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>753</t>
@@ -6806,7 +6806,7 @@
     <t>Meryflight</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 2 сек.</t>
+    <t>6 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>755</t>
@@ -6869,7 +6869,7 @@
     <t>Антоний_</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -6878,7 +6878,7 @@
     <t>calkul9tor</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 9 сек.</t>
+    <t>6 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>763</t>
@@ -6887,7 +6887,7 @@
     <t>YuranTM</t>
   </si>
   <si>
-    <t>6 ч. 30 мин. 6 сек.</t>
+    <t>6 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>764</t>
@@ -6914,7 +6914,7 @@
     <t>Waleria</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 0 сек.</t>
+    <t>6 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>767</t>
@@ -6950,7 +6950,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>6 ч. 25 мин. 9 сек.</t>
+    <t>6 ч. 25 мин. 09 сек.</t>
   </si>
   <si>
     <t>771</t>
@@ -7013,7 +7013,7 @@
     <t>Skiper</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 0 сек.</t>
+    <t>6 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>778</t>
@@ -7049,7 +7049,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 5 сек.</t>
+    <t>6 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>782</t>
@@ -7085,7 +7085,7 @@
     <t>Петруша</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>786–787</t>
@@ -7094,7 +7094,7 @@
     <t>dim07</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 0 сек.</t>
+    <t>6 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>zdes</t>
@@ -7106,7 +7106,7 @@
     <t>statyev</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 26 сек.</t>
+    <t>6 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>789</t>
@@ -7115,7 +7115,7 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 6 сек.</t>
+    <t>6 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>790</t>
@@ -7124,7 +7124,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 3 сек.</t>
+    <t>6 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>791</t>
@@ -7133,7 +7133,7 @@
     <t>JIug</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 23 сек.</t>
+    <t>6 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>792</t>
@@ -7142,7 +7142,7 @@
     <t>Гений_Печати</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 2 сек.</t>
+    <t>6 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>793</t>
@@ -7151,7 +7151,7 @@
     <t>Gesichtslos</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 42 сек.</t>
+    <t>6 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>794</t>
@@ -7160,7 +7160,7 @@
     <t>Brunetka</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 41 сек.</t>
+    <t>6 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>795</t>
@@ -7169,7 +7169,7 @@
     <t>Хамякадзе</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 36 сек.</t>
+    <t>6 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>796</t>
@@ -7178,7 +7178,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 2 сек.</t>
+    <t>6 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>797</t>
@@ -7187,7 +7187,7 @@
     <t>Joonior</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>798</t>
@@ -7196,7 +7196,7 @@
     <t>owiden</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>799</t>
@@ -7214,7 +7214,7 @@
     <t>lafit</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 1 сек.</t>
+    <t>5 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>801</t>
@@ -7268,7 +7268,7 @@
     <t>АнтонМискевич</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 1 сек.</t>
+    <t>5 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>807</t>
@@ -7361,7 +7361,7 @@
     <t>Ларис</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 7 сек.</t>
+    <t>5 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>818</t>
@@ -7469,7 +7469,7 @@
     <t>mdanoff</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 8 сек.</t>
+    <t>5 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>830</t>
@@ -7505,7 +7505,7 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 9 сек.</t>
+    <t>5 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>834</t>
@@ -7550,7 +7550,7 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 5 сек.</t>
+    <t>5 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>839</t>
@@ -7577,7 +7577,7 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 3 сек.</t>
+    <t>5 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>842</t>
@@ -7667,7 +7667,7 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 9 сек.</t>
+    <t>5 ч. 27 мин. 09 сек.</t>
   </si>
   <si>
     <t>852</t>
@@ -7712,7 +7712,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 2 сек.</t>
+    <t>5 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>857</t>
@@ -7730,7 +7730,7 @@
     <t>Ares0000</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 5 сек.</t>
+    <t>5 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>859</t>
@@ -7748,7 +7748,7 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 2 сек.</t>
+    <t>5 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>861</t>
@@ -7775,7 +7775,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7838,7 +7838,7 @@
     <t>DeDlol</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 55 сек.</t>
+    <t>5 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>871</t>
@@ -7847,7 +7847,7 @@
     <t>Vergessen</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 38 сек.</t>
+    <t>5 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>872</t>
@@ -7856,7 +7856,7 @@
     <t>yarik7_6</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 39 сек.</t>
+    <t>5 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>873</t>
@@ -7865,7 +7865,7 @@
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>874</t>
@@ -7874,7 +7874,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 39 сек.</t>
+    <t>5 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>875</t>
@@ -7883,7 +7883,7 @@
     <t>wertuss</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>876</t>
@@ -7892,7 +7892,7 @@
     <t>alx_ol</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 10 сек.</t>
+    <t>5 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>877</t>
@@ -7901,7 +7901,7 @@
     <t>Azartezem</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 8 сек.</t>
+    <t>5 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>878</t>
@@ -7910,7 +7910,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 34 сек.</t>
+    <t>5 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>879</t>
@@ -7919,7 +7919,7 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 24 сек.</t>
+    <t>5 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>880</t>
@@ -7928,7 +7928,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 54 сек.</t>
+    <t>5 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>881</t>
@@ -7937,7 +7937,7 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>882</t>
@@ -7946,7 +7946,7 @@
     <t>guojia</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 18 сек.</t>
+    <t>5 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>883</t>
@@ -7982,7 +7982,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 8 сек.</t>
+    <t>4 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>887</t>
@@ -7991,7 +7991,7 @@
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 2 сек.</t>
+    <t>4 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>888</t>
@@ -8018,7 +8018,7 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>4 ч. 57 мин. 9 сек.</t>
+    <t>4 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>891</t>
@@ -8027,7 +8027,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 3 сек.</t>
+    <t>4 ч. 56 мин. 03 сек.</t>
   </si>
   <si>
     <t>892</t>
@@ -8036,7 +8036,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 0 сек.</t>
+    <t>4 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>893</t>
@@ -8072,7 +8072,7 @@
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 5 сек.</t>
+    <t>4 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>897</t>
@@ -8105,7 +8105,7 @@
     <t>VodViktor</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>901</t>
@@ -8132,7 +8132,7 @@
     <t>Langolierrr</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 1 сек.</t>
+    <t>4 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>904</t>
@@ -8168,7 +8168,7 @@
     <t>Floopyy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 5 сек.</t>
+    <t>4 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>908</t>
@@ -8396,7 +8396,7 @@
     <t>Telefunkenist</t>
   </si>
   <si>
-    <t>4 ч. 26 мин. 1 сек.</t>
+    <t>4 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>934</t>
@@ -8459,7 +8459,7 @@
     <t>realemerald</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 7 сек.</t>
+    <t>4 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>941</t>
@@ -8486,7 +8486,7 @@
     <t>treexH</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 7 сек.</t>
+    <t>4 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>944</t>
@@ -8495,7 +8495,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>945</t>
@@ -8513,7 +8513,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 1 сек.</t>
+    <t>4 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>947</t>
@@ -8639,7 +8639,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 57 сек.</t>
+    <t>4 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>961</t>
@@ -8648,7 +8648,7 @@
     <t>моном</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 50 сек.</t>
+    <t>4 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>962</t>
@@ -8657,7 +8657,7 @@
     <t>SteeLFalcoN</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 45 сек.</t>
+    <t>4 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>963</t>
@@ -8666,7 +8666,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>964</t>
@@ -8675,7 +8675,7 @@
     <t>SanyaLive</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>965</t>
@@ -8684,7 +8684,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 26 сек.</t>
+    <t>4 ч. 07 мин. 26 сек.</t>
   </si>
   <si>
     <t>966</t>
@@ -8693,7 +8693,7 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 40 сек.</t>
+    <t>4 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>967</t>
@@ -8702,7 +8702,7 @@
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 17 сек.</t>
+    <t>4 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>968</t>
@@ -8711,7 +8711,7 @@
     <t>AtLanT_123</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>969</t>
@@ -8720,7 +8720,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 59 сек.</t>
+    <t>4 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>970</t>
@@ -8729,7 +8729,7 @@
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 57 сек.</t>
+    <t>4 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>971</t>
@@ -8738,7 +8738,7 @@
     <t>Vlados_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>972</t>
@@ -8747,7 +8747,7 @@
     <t>кенгуру_саня</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 26 сек.</t>
+    <t>4 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>973</t>
@@ -8756,7 +8756,7 @@
     <t>0beron</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 13 сек.</t>
+    <t>4 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>974</t>
@@ -8765,7 +8765,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 24 сек.</t>
+    <t>4 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>975</t>
@@ -8774,7 +8774,7 @@
     <t>Chadfleanthony</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 51 сек.</t>
+    <t>4 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>976</t>
@@ -8783,7 +8783,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 15 сек.</t>
+    <t>4 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>977</t>
@@ -8792,7 +8792,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 8 сек.</t>
+    <t>4 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>978</t>
@@ -8855,7 +8855,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 7 сек.</t>
+    <t>3 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>985</t>
@@ -8999,7 +8999,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 6 сек.</t>
+    <t>3 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>1001</t>
@@ -9107,7 +9107,7 @@
     <t>Gudron</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 9 сек.</t>
+    <t>3 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>1013</t>
@@ -9134,7 +9134,7 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 1 сек.</t>
+    <t>3 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>1016–1017</t>
@@ -9173,7 +9173,7 @@
     <t>training</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 4 сек.</t>
+    <t>3 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>1021</t>
@@ -9191,7 +9191,7 @@
     <t>hedint</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 9 сек.</t>
+    <t>3 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>1023</t>
@@ -9200,7 +9200,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 6 сек.</t>
+    <t>3 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>1024</t>
@@ -9263,7 +9263,7 @@
     <t>iforrest</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 9 сек.</t>
+    <t>3 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>1031</t>
@@ -9272,7 +9272,7 @@
     <t>Тазы-валят</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 5 сек.</t>
+    <t>3 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>1032</t>
@@ -9281,7 +9281,7 @@
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 0 сек.</t>
+    <t>3 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>1033</t>
@@ -9290,7 +9290,7 @@
     <t>Carcharias</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 57 сек.</t>
+    <t>3 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>1034</t>
@@ -9344,7 +9344,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 8 сек.</t>
+    <t>2 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>1040</t>
@@ -9380,7 +9380,7 @@
     <t>Galoperidol</t>
   </si>
   <si>
-    <t>2 ч. 28 мин. 4 сек.</t>
+    <t>2 ч. 28 мин. 04 сек.</t>
   </si>
 </sst>
 </file>
